--- a/ds_write_bank.xlsx
+++ b/ds_write_bank.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet_name_1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet_name_2" sheetId="2" r:id="rId2"/>
+    <sheet name="ds_write_bank" sheetId="1" r:id="rId1"/>
+    <sheet name="ds_write_pos" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -1140,2326 +1140,2834 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IW3"/>
+  <dimension ref="A1:C257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:257">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="B110">
+        <v>2</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="DI1" s="1" t="s">
+      <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="B113">
+        <v>2</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="B114">
+        <v>3</v>
+      </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="B115">
+        <v>3</v>
+      </c>
+      <c r="C115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="B116">
+        <v>3</v>
+      </c>
+      <c r="C116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="B117">
+        <v>3</v>
+      </c>
+      <c r="C117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="B118">
+        <v>3</v>
+      </c>
+      <c r="C118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="B119">
+        <v>3</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="B120">
+        <v>3</v>
+      </c>
+      <c r="C120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="B122">
+        <v>3</v>
+      </c>
+      <c r="C122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="B123">
+        <v>3</v>
+      </c>
+      <c r="C123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="B124">
+        <v>3</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="DV1" s="1" t="s">
+      <c r="B125">
+        <v>3</v>
+      </c>
+      <c r="C125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="DW1" s="1" t="s">
+      <c r="B126">
+        <v>3</v>
+      </c>
+      <c r="C126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="DX1" s="1" t="s">
+      <c r="B127">
+        <v>3</v>
+      </c>
+      <c r="C127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="DY1" s="1" t="s">
+      <c r="B128">
+        <v>3</v>
+      </c>
+      <c r="C128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="DZ1" s="1" t="s">
+      <c r="B129">
+        <v>3</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="EA1" s="1" t="s">
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="EB1" s="1" t="s">
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="EC1" s="1" t="s">
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="ED1" s="1" t="s">
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="EE1" s="1" t="s">
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="EF1" s="1" t="s">
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="EG1" s="1" t="s">
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="EH1" s="1" t="s">
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="EI1" s="1" t="s">
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="EJ1" s="1" t="s">
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="EK1" s="1" t="s">
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="EL1" s="1" t="s">
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="EM1" s="1" t="s">
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="EN1" s="1" t="s">
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="EO1" s="1" t="s">
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="EP1" s="1" t="s">
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="EQ1" s="1" t="s">
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="ER1" s="1" t="s">
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="ES1" s="1" t="s">
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="ET1" s="1" t="s">
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="EU1" s="1" t="s">
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="EV1" s="1" t="s">
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="EW1" s="1" t="s">
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="EX1" s="1" t="s">
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="EY1" s="1" t="s">
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="EZ1" s="1" t="s">
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="FA1" s="1" t="s">
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="FB1" s="1" t="s">
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="FC1" s="1" t="s">
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="FD1" s="1" t="s">
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="FE1" s="1" t="s">
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="FF1" s="1" t="s">
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="FG1" s="1" t="s">
+      <c r="B162">
+        <v>2</v>
+      </c>
+      <c r="C162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="FH1" s="1" t="s">
+      <c r="B163">
+        <v>2</v>
+      </c>
+      <c r="C163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="FI1" s="1" t="s">
+      <c r="B164">
+        <v>2</v>
+      </c>
+      <c r="C164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="FJ1" s="1" t="s">
+      <c r="B165">
+        <v>2</v>
+      </c>
+      <c r="C165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="FK1" s="1" t="s">
+      <c r="B166">
+        <v>2</v>
+      </c>
+      <c r="C166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="FL1" s="1" t="s">
+      <c r="B167">
+        <v>2</v>
+      </c>
+      <c r="C167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="FM1" s="1" t="s">
+      <c r="B168">
+        <v>2</v>
+      </c>
+      <c r="C168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="FN1" s="1" t="s">
+      <c r="B169">
+        <v>2</v>
+      </c>
+      <c r="C169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="FO1" s="1" t="s">
+      <c r="B170">
+        <v>2</v>
+      </c>
+      <c r="C170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="FP1" s="1" t="s">
+      <c r="B171">
+        <v>2</v>
+      </c>
+      <c r="C171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="FQ1" s="1" t="s">
+      <c r="B172">
+        <v>2</v>
+      </c>
+      <c r="C172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="FR1" s="1" t="s">
+      <c r="B173">
+        <v>2</v>
+      </c>
+      <c r="C173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="FS1" s="1" t="s">
+      <c r="B174">
+        <v>2</v>
+      </c>
+      <c r="C174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="FT1" s="1" t="s">
+      <c r="B175">
+        <v>2</v>
+      </c>
+      <c r="C175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="FU1" s="1" t="s">
+      <c r="B176">
+        <v>2</v>
+      </c>
+      <c r="C176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="FV1" s="1" t="s">
+      <c r="B177">
+        <v>2</v>
+      </c>
+      <c r="C177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="FW1" s="1" t="s">
+      <c r="B178">
+        <v>3</v>
+      </c>
+      <c r="C178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="FX1" s="1" t="s">
+      <c r="B179">
+        <v>3</v>
+      </c>
+      <c r="C179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="FY1" s="1" t="s">
+      <c r="B180">
+        <v>3</v>
+      </c>
+      <c r="C180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="FZ1" s="1" t="s">
+      <c r="B181">
+        <v>3</v>
+      </c>
+      <c r="C181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="GA1" s="1" t="s">
+      <c r="B182">
+        <v>3</v>
+      </c>
+      <c r="C182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="GB1" s="1" t="s">
+      <c r="B183">
+        <v>3</v>
+      </c>
+      <c r="C183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="GC1" s="1" t="s">
+      <c r="B184">
+        <v>3</v>
+      </c>
+      <c r="C184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="GD1" s="1" t="s">
+      <c r="B185">
+        <v>3</v>
+      </c>
+      <c r="C185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="GE1" s="1" t="s">
+      <c r="B186">
+        <v>3</v>
+      </c>
+      <c r="C186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="GF1" s="1" t="s">
+      <c r="B187">
+        <v>3</v>
+      </c>
+      <c r="C187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="GG1" s="1" t="s">
+      <c r="B188">
+        <v>3</v>
+      </c>
+      <c r="C188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="GH1" s="1" t="s">
+      <c r="B189">
+        <v>3</v>
+      </c>
+      <c r="C189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="GI1" s="1" t="s">
+      <c r="B190">
+        <v>3</v>
+      </c>
+      <c r="C190">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="GJ1" s="1" t="s">
+      <c r="B191">
+        <v>3</v>
+      </c>
+      <c r="C191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="GK1" s="1" t="s">
+      <c r="B192">
+        <v>3</v>
+      </c>
+      <c r="C192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="GL1" s="1" t="s">
+      <c r="B193">
+        <v>3</v>
+      </c>
+      <c r="C193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="GM1" s="1" t="s">
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="GN1" s="1" t="s">
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="GO1" s="1" t="s">
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="GP1" s="1" t="s">
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="GQ1" s="1" t="s">
+      <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="GR1" s="1" t="s">
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="GS1" s="1" t="s">
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="GT1" s="1" t="s">
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="GU1" s="1" t="s">
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="GV1" s="1" t="s">
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="GW1" s="1" t="s">
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="GX1" s="1" t="s">
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="GY1" s="1" t="s">
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="GZ1" s="1" t="s">
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="HA1" s="1" t="s">
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="HB1" s="1" t="s">
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="HC1" s="1" t="s">
+      <c r="B210">
+        <v>1</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="HD1" s="1" t="s">
+      <c r="B211">
+        <v>1</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="HE1" s="1" t="s">
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="HF1" s="1" t="s">
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="HG1" s="1" t="s">
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="HH1" s="1" t="s">
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="HI1" s="1" t="s">
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="HJ1" s="1" t="s">
+      <c r="B217">
+        <v>1</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="HK1" s="1" t="s">
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="HL1" s="1" t="s">
+      <c r="B219">
+        <v>1</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="HM1" s="1" t="s">
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="HN1" s="1" t="s">
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="HO1" s="1" t="s">
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="HP1" s="1" t="s">
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="HQ1" s="1" t="s">
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="HR1" s="1" t="s">
+      <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="HS1" s="1" t="s">
+      <c r="B226">
+        <v>2</v>
+      </c>
+      <c r="C226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="HT1" s="1" t="s">
+      <c r="B227">
+        <v>2</v>
+      </c>
+      <c r="C227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="HU1" s="1" t="s">
+      <c r="B228">
+        <v>2</v>
+      </c>
+      <c r="C228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="HV1" s="1" t="s">
+      <c r="B229">
+        <v>2</v>
+      </c>
+      <c r="C229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="HW1" s="1" t="s">
+      <c r="B230">
+        <v>2</v>
+      </c>
+      <c r="C230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="HX1" s="1" t="s">
+      <c r="B231">
+        <v>2</v>
+      </c>
+      <c r="C231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="HY1" s="1" t="s">
+      <c r="B232">
+        <v>2</v>
+      </c>
+      <c r="C232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="HZ1" s="1" t="s">
+      <c r="B233">
+        <v>2</v>
+      </c>
+      <c r="C233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="IA1" s="1" t="s">
+      <c r="B234">
+        <v>2</v>
+      </c>
+      <c r="C234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="IB1" s="1" t="s">
+      <c r="B235">
+        <v>2</v>
+      </c>
+      <c r="C235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="IC1" s="1" t="s">
+      <c r="B236">
+        <v>2</v>
+      </c>
+      <c r="C236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="ID1" s="1" t="s">
+      <c r="B237">
+        <v>2</v>
+      </c>
+      <c r="C237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="IE1" s="1" t="s">
+      <c r="B238">
+        <v>2</v>
+      </c>
+      <c r="C238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="IF1" s="1" t="s">
+      <c r="B239">
+        <v>2</v>
+      </c>
+      <c r="C239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="IG1" s="1" t="s">
+      <c r="B240">
+        <v>2</v>
+      </c>
+      <c r="C240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="IH1" s="1" t="s">
+      <c r="B241">
+        <v>2</v>
+      </c>
+      <c r="C241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="II1" s="1" t="s">
+      <c r="B242">
+        <v>3</v>
+      </c>
+      <c r="C242">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="IJ1" s="1" t="s">
+      <c r="B243">
+        <v>3</v>
+      </c>
+      <c r="C243">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="IK1" s="1" t="s">
+      <c r="B244">
+        <v>3</v>
+      </c>
+      <c r="C244">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="IL1" s="1" t="s">
+      <c r="B245">
+        <v>3</v>
+      </c>
+      <c r="C245">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="IM1" s="1" t="s">
+      <c r="B246">
+        <v>3</v>
+      </c>
+      <c r="C246">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="IN1" s="1" t="s">
+      <c r="B247">
+        <v>3</v>
+      </c>
+      <c r="C247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="IO1" s="1" t="s">
+      <c r="B248">
+        <v>3</v>
+      </c>
+      <c r="C248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="IP1" s="1" t="s">
+      <c r="B249">
+        <v>3</v>
+      </c>
+      <c r="C249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="IQ1" s="1" t="s">
+      <c r="B250">
+        <v>3</v>
+      </c>
+      <c r="C250">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="IR1" s="1" t="s">
+      <c r="B251">
+        <v>3</v>
+      </c>
+      <c r="C251">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="IS1" s="1" t="s">
+      <c r="B252">
+        <v>3</v>
+      </c>
+      <c r="C252">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="IT1" s="1" t="s">
+      <c r="B253">
+        <v>3</v>
+      </c>
+      <c r="C253">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="IU1" s="1" t="s">
+      <c r="B254">
+        <v>3</v>
+      </c>
+      <c r="C254">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="IV1" s="1" t="s">
+      <c r="B255">
+        <v>3</v>
+      </c>
+      <c r="C255">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="IW1" s="1" t="s">
+      <c r="B256">
+        <v>3</v>
+      </c>
+      <c r="C256">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="2" spans="1:257">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>16</v>
-      </c>
-      <c r="G2">
-        <v>20</v>
-      </c>
-      <c r="H2">
-        <v>24</v>
-      </c>
-      <c r="I2">
-        <v>28</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>4</v>
-      </c>
-      <c r="L2">
-        <v>8</v>
-      </c>
-      <c r="M2">
-        <v>12</v>
-      </c>
-      <c r="N2">
-        <v>16</v>
-      </c>
-      <c r="O2">
-        <v>20</v>
-      </c>
-      <c r="P2">
-        <v>24</v>
-      </c>
-      <c r="Q2">
-        <v>28</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>5</v>
-      </c>
-      <c r="T2">
-        <v>9</v>
-      </c>
-      <c r="U2">
-        <v>13</v>
-      </c>
-      <c r="V2">
-        <v>17</v>
-      </c>
-      <c r="W2">
-        <v>21</v>
-      </c>
-      <c r="X2">
-        <v>25</v>
-      </c>
-      <c r="Y2">
-        <v>29</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-      <c r="AA2">
-        <v>5</v>
-      </c>
-      <c r="AB2">
-        <v>9</v>
-      </c>
-      <c r="AC2">
-        <v>13</v>
-      </c>
-      <c r="AD2">
-        <v>17</v>
-      </c>
-      <c r="AE2">
-        <v>21</v>
-      </c>
-      <c r="AF2">
-        <v>25</v>
-      </c>
-      <c r="AG2">
-        <v>29</v>
-      </c>
-      <c r="AH2">
-        <v>2</v>
-      </c>
-      <c r="AI2">
-        <v>6</v>
-      </c>
-      <c r="AJ2">
-        <v>10</v>
-      </c>
-      <c r="AK2">
-        <v>14</v>
-      </c>
-      <c r="AL2">
-        <v>18</v>
-      </c>
-      <c r="AM2">
-        <v>22</v>
-      </c>
-      <c r="AN2">
-        <v>26</v>
-      </c>
-      <c r="AO2">
-        <v>30</v>
-      </c>
-      <c r="AP2">
-        <v>2</v>
-      </c>
-      <c r="AQ2">
-        <v>6</v>
-      </c>
-      <c r="AR2">
-        <v>10</v>
-      </c>
-      <c r="AS2">
-        <v>14</v>
-      </c>
-      <c r="AT2">
-        <v>18</v>
-      </c>
-      <c r="AU2">
-        <v>22</v>
-      </c>
-      <c r="AV2">
-        <v>26</v>
-      </c>
-      <c r="AW2">
-        <v>30</v>
-      </c>
-      <c r="AX2">
-        <v>3</v>
-      </c>
-      <c r="AY2">
-        <v>7</v>
-      </c>
-      <c r="AZ2">
-        <v>11</v>
-      </c>
-      <c r="BA2">
-        <v>15</v>
-      </c>
-      <c r="BB2">
-        <v>19</v>
-      </c>
-      <c r="BC2">
-        <v>23</v>
-      </c>
-      <c r="BD2">
-        <v>27</v>
-      </c>
-      <c r="BE2">
-        <v>31</v>
-      </c>
-      <c r="BF2">
-        <v>3</v>
-      </c>
-      <c r="BG2">
-        <v>7</v>
-      </c>
-      <c r="BH2">
-        <v>11</v>
-      </c>
-      <c r="BI2">
-        <v>15</v>
-      </c>
-      <c r="BJ2">
-        <v>19</v>
-      </c>
-      <c r="BK2">
-        <v>23</v>
-      </c>
-      <c r="BL2">
-        <v>27</v>
-      </c>
-      <c r="BM2">
-        <v>31</v>
-      </c>
-      <c r="BN2">
-        <v>0</v>
-      </c>
-      <c r="BO2">
-        <v>4</v>
-      </c>
-      <c r="BP2">
-        <v>8</v>
-      </c>
-      <c r="BQ2">
-        <v>12</v>
-      </c>
-      <c r="BR2">
-        <v>16</v>
-      </c>
-      <c r="BS2">
-        <v>20</v>
-      </c>
-      <c r="BT2">
-        <v>24</v>
-      </c>
-      <c r="BU2">
-        <v>28</v>
-      </c>
-      <c r="BV2">
-        <v>0</v>
-      </c>
-      <c r="BW2">
-        <v>4</v>
-      </c>
-      <c r="BX2">
-        <v>8</v>
-      </c>
-      <c r="BY2">
-        <v>12</v>
-      </c>
-      <c r="BZ2">
-        <v>16</v>
-      </c>
-      <c r="CA2">
-        <v>20</v>
-      </c>
-      <c r="CB2">
-        <v>24</v>
-      </c>
-      <c r="CC2">
-        <v>28</v>
-      </c>
-      <c r="CD2">
-        <v>1</v>
-      </c>
-      <c r="CE2">
-        <v>5</v>
-      </c>
-      <c r="CF2">
-        <v>9</v>
-      </c>
-      <c r="CG2">
-        <v>13</v>
-      </c>
-      <c r="CH2">
-        <v>17</v>
-      </c>
-      <c r="CI2">
-        <v>21</v>
-      </c>
-      <c r="CJ2">
-        <v>25</v>
-      </c>
-      <c r="CK2">
-        <v>29</v>
-      </c>
-      <c r="CL2">
-        <v>1</v>
-      </c>
-      <c r="CM2">
-        <v>5</v>
-      </c>
-      <c r="CN2">
-        <v>9</v>
-      </c>
-      <c r="CO2">
-        <v>13</v>
-      </c>
-      <c r="CP2">
-        <v>17</v>
-      </c>
-      <c r="CQ2">
-        <v>21</v>
-      </c>
-      <c r="CR2">
-        <v>25</v>
-      </c>
-      <c r="CS2">
-        <v>29</v>
-      </c>
-      <c r="CT2">
-        <v>2</v>
-      </c>
-      <c r="CU2">
-        <v>6</v>
-      </c>
-      <c r="CV2">
-        <v>10</v>
-      </c>
-      <c r="CW2">
-        <v>14</v>
-      </c>
-      <c r="CX2">
-        <v>18</v>
-      </c>
-      <c r="CY2">
-        <v>22</v>
-      </c>
-      <c r="CZ2">
-        <v>26</v>
-      </c>
-      <c r="DA2">
-        <v>30</v>
-      </c>
-      <c r="DB2">
-        <v>2</v>
-      </c>
-      <c r="DC2">
-        <v>6</v>
-      </c>
-      <c r="DD2">
-        <v>10</v>
-      </c>
-      <c r="DE2">
-        <v>14</v>
-      </c>
-      <c r="DF2">
-        <v>18</v>
-      </c>
-      <c r="DG2">
-        <v>22</v>
-      </c>
-      <c r="DH2">
-        <v>26</v>
-      </c>
-      <c r="DI2">
-        <v>30</v>
-      </c>
-      <c r="DJ2">
-        <v>3</v>
-      </c>
-      <c r="DK2">
-        <v>7</v>
-      </c>
-      <c r="DL2">
-        <v>11</v>
-      </c>
-      <c r="DM2">
-        <v>15</v>
-      </c>
-      <c r="DN2">
-        <v>19</v>
-      </c>
-      <c r="DO2">
-        <v>23</v>
-      </c>
-      <c r="DP2">
-        <v>27</v>
-      </c>
-      <c r="DQ2">
-        <v>31</v>
-      </c>
-      <c r="DR2">
-        <v>3</v>
-      </c>
-      <c r="DS2">
-        <v>7</v>
-      </c>
-      <c r="DT2">
-        <v>11</v>
-      </c>
-      <c r="DU2">
-        <v>15</v>
-      </c>
-      <c r="DV2">
-        <v>19</v>
-      </c>
-      <c r="DW2">
-        <v>23</v>
-      </c>
-      <c r="DX2">
-        <v>27</v>
-      </c>
-      <c r="DY2">
-        <v>31</v>
-      </c>
-      <c r="DZ2">
-        <v>0</v>
-      </c>
-      <c r="EA2">
-        <v>4</v>
-      </c>
-      <c r="EB2">
-        <v>8</v>
-      </c>
-      <c r="EC2">
-        <v>12</v>
-      </c>
-      <c r="ED2">
-        <v>16</v>
-      </c>
-      <c r="EE2">
-        <v>20</v>
-      </c>
-      <c r="EF2">
-        <v>24</v>
-      </c>
-      <c r="EG2">
-        <v>28</v>
-      </c>
-      <c r="EH2">
-        <v>0</v>
-      </c>
-      <c r="EI2">
-        <v>4</v>
-      </c>
-      <c r="EJ2">
-        <v>8</v>
-      </c>
-      <c r="EK2">
-        <v>12</v>
-      </c>
-      <c r="EL2">
-        <v>16</v>
-      </c>
-      <c r="EM2">
-        <v>20</v>
-      </c>
-      <c r="EN2">
-        <v>24</v>
-      </c>
-      <c r="EO2">
-        <v>28</v>
-      </c>
-      <c r="EP2">
-        <v>1</v>
-      </c>
-      <c r="EQ2">
-        <v>5</v>
-      </c>
-      <c r="ER2">
-        <v>9</v>
-      </c>
-      <c r="ES2">
-        <v>13</v>
-      </c>
-      <c r="ET2">
-        <v>17</v>
-      </c>
-      <c r="EU2">
-        <v>21</v>
-      </c>
-      <c r="EV2">
-        <v>25</v>
-      </c>
-      <c r="EW2">
-        <v>29</v>
-      </c>
-      <c r="EX2">
-        <v>1</v>
-      </c>
-      <c r="EY2">
-        <v>5</v>
-      </c>
-      <c r="EZ2">
-        <v>9</v>
-      </c>
-      <c r="FA2">
-        <v>13</v>
-      </c>
-      <c r="FB2">
-        <v>17</v>
-      </c>
-      <c r="FC2">
-        <v>21</v>
-      </c>
-      <c r="FD2">
-        <v>25</v>
-      </c>
-      <c r="FE2">
-        <v>29</v>
-      </c>
-      <c r="FF2">
-        <v>2</v>
-      </c>
-      <c r="FG2">
-        <v>6</v>
-      </c>
-      <c r="FH2">
-        <v>10</v>
-      </c>
-      <c r="FI2">
-        <v>14</v>
-      </c>
-      <c r="FJ2">
-        <v>18</v>
-      </c>
-      <c r="FK2">
-        <v>22</v>
-      </c>
-      <c r="FL2">
-        <v>26</v>
-      </c>
-      <c r="FM2">
-        <v>30</v>
-      </c>
-      <c r="FN2">
-        <v>2</v>
-      </c>
-      <c r="FO2">
-        <v>6</v>
-      </c>
-      <c r="FP2">
-        <v>10</v>
-      </c>
-      <c r="FQ2">
-        <v>14</v>
-      </c>
-      <c r="FR2">
-        <v>18</v>
-      </c>
-      <c r="FS2">
-        <v>22</v>
-      </c>
-      <c r="FT2">
-        <v>26</v>
-      </c>
-      <c r="FU2">
-        <v>30</v>
-      </c>
-      <c r="FV2">
-        <v>3</v>
-      </c>
-      <c r="FW2">
-        <v>7</v>
-      </c>
-      <c r="FX2">
-        <v>11</v>
-      </c>
-      <c r="FY2">
-        <v>15</v>
-      </c>
-      <c r="FZ2">
-        <v>19</v>
-      </c>
-      <c r="GA2">
-        <v>23</v>
-      </c>
-      <c r="GB2">
-        <v>27</v>
-      </c>
-      <c r="GC2">
-        <v>31</v>
-      </c>
-      <c r="GD2">
-        <v>3</v>
-      </c>
-      <c r="GE2">
-        <v>7</v>
-      </c>
-      <c r="GF2">
-        <v>11</v>
-      </c>
-      <c r="GG2">
-        <v>15</v>
-      </c>
-      <c r="GH2">
-        <v>19</v>
-      </c>
-      <c r="GI2">
-        <v>23</v>
-      </c>
-      <c r="GJ2">
-        <v>27</v>
-      </c>
-      <c r="GK2">
-        <v>31</v>
-      </c>
-      <c r="GL2">
-        <v>0</v>
-      </c>
-      <c r="GM2">
-        <v>4</v>
-      </c>
-      <c r="GN2">
-        <v>8</v>
-      </c>
-      <c r="GO2">
-        <v>12</v>
-      </c>
-      <c r="GP2">
-        <v>16</v>
-      </c>
-      <c r="GQ2">
-        <v>20</v>
-      </c>
-      <c r="GR2">
-        <v>24</v>
-      </c>
-      <c r="GS2">
-        <v>28</v>
-      </c>
-      <c r="GT2">
-        <v>0</v>
-      </c>
-      <c r="GU2">
-        <v>4</v>
-      </c>
-      <c r="GV2">
-        <v>8</v>
-      </c>
-      <c r="GW2">
-        <v>12</v>
-      </c>
-      <c r="GX2">
-        <v>16</v>
-      </c>
-      <c r="GY2">
-        <v>20</v>
-      </c>
-      <c r="GZ2">
-        <v>24</v>
-      </c>
-      <c r="HA2">
-        <v>28</v>
-      </c>
-      <c r="HB2">
-        <v>1</v>
-      </c>
-      <c r="HC2">
-        <v>5</v>
-      </c>
-      <c r="HD2">
-        <v>9</v>
-      </c>
-      <c r="HE2">
-        <v>13</v>
-      </c>
-      <c r="HF2">
-        <v>17</v>
-      </c>
-      <c r="HG2">
-        <v>21</v>
-      </c>
-      <c r="HH2">
-        <v>25</v>
-      </c>
-      <c r="HI2">
-        <v>29</v>
-      </c>
-      <c r="HJ2">
-        <v>1</v>
-      </c>
-      <c r="HK2">
-        <v>5</v>
-      </c>
-      <c r="HL2">
-        <v>9</v>
-      </c>
-      <c r="HM2">
-        <v>13</v>
-      </c>
-      <c r="HN2">
-        <v>17</v>
-      </c>
-      <c r="HO2">
-        <v>21</v>
-      </c>
-      <c r="HP2">
-        <v>25</v>
-      </c>
-      <c r="HQ2">
-        <v>29</v>
-      </c>
-      <c r="HR2">
-        <v>2</v>
-      </c>
-      <c r="HS2">
-        <v>6</v>
-      </c>
-      <c r="HT2">
-        <v>10</v>
-      </c>
-      <c r="HU2">
-        <v>14</v>
-      </c>
-      <c r="HV2">
-        <v>18</v>
-      </c>
-      <c r="HW2">
-        <v>22</v>
-      </c>
-      <c r="HX2">
-        <v>26</v>
-      </c>
-      <c r="HY2">
-        <v>30</v>
-      </c>
-      <c r="HZ2">
-        <v>2</v>
-      </c>
-      <c r="IA2">
-        <v>6</v>
-      </c>
-      <c r="IB2">
-        <v>10</v>
-      </c>
-      <c r="IC2">
-        <v>14</v>
-      </c>
-      <c r="ID2">
-        <v>18</v>
-      </c>
-      <c r="IE2">
-        <v>22</v>
-      </c>
-      <c r="IF2">
-        <v>26</v>
-      </c>
-      <c r="IG2">
-        <v>30</v>
-      </c>
-      <c r="IH2">
-        <v>3</v>
-      </c>
-      <c r="II2">
-        <v>7</v>
-      </c>
-      <c r="IJ2">
-        <v>11</v>
-      </c>
-      <c r="IK2">
-        <v>15</v>
-      </c>
-      <c r="IL2">
-        <v>19</v>
-      </c>
-      <c r="IM2">
-        <v>23</v>
-      </c>
-      <c r="IN2">
-        <v>27</v>
-      </c>
-      <c r="IO2">
-        <v>31</v>
-      </c>
-      <c r="IP2">
-        <v>3</v>
-      </c>
-      <c r="IQ2">
-        <v>7</v>
-      </c>
-      <c r="IR2">
-        <v>11</v>
-      </c>
-      <c r="IS2">
-        <v>15</v>
-      </c>
-      <c r="IT2">
-        <v>19</v>
-      </c>
-      <c r="IU2">
-        <v>23</v>
-      </c>
-      <c r="IV2">
-        <v>27</v>
-      </c>
-      <c r="IW2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:257">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>20</v>
-      </c>
-      <c r="H3">
-        <v>24</v>
-      </c>
-      <c r="I3">
-        <v>28</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>4</v>
-      </c>
-      <c r="L3">
-        <v>8</v>
-      </c>
-      <c r="M3">
-        <v>12</v>
-      </c>
-      <c r="N3">
-        <v>16</v>
-      </c>
-      <c r="O3">
-        <v>20</v>
-      </c>
-      <c r="P3">
-        <v>24</v>
-      </c>
-      <c r="Q3">
-        <v>28</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>5</v>
-      </c>
-      <c r="T3">
-        <v>9</v>
-      </c>
-      <c r="U3">
-        <v>13</v>
-      </c>
-      <c r="V3">
-        <v>17</v>
-      </c>
-      <c r="W3">
-        <v>21</v>
-      </c>
-      <c r="X3">
-        <v>25</v>
-      </c>
-      <c r="Y3">
-        <v>29</v>
-      </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-      <c r="AA3">
-        <v>5</v>
-      </c>
-      <c r="AB3">
-        <v>9</v>
-      </c>
-      <c r="AC3">
-        <v>13</v>
-      </c>
-      <c r="AD3">
-        <v>17</v>
-      </c>
-      <c r="AE3">
-        <v>21</v>
-      </c>
-      <c r="AF3">
-        <v>25</v>
-      </c>
-      <c r="AG3">
-        <v>29</v>
-      </c>
-      <c r="AH3">
-        <v>2</v>
-      </c>
-      <c r="AI3">
-        <v>6</v>
-      </c>
-      <c r="AJ3">
-        <v>10</v>
-      </c>
-      <c r="AK3">
-        <v>14</v>
-      </c>
-      <c r="AL3">
-        <v>18</v>
-      </c>
-      <c r="AM3">
-        <v>22</v>
-      </c>
-      <c r="AN3">
-        <v>26</v>
-      </c>
-      <c r="AO3">
-        <v>30</v>
-      </c>
-      <c r="AP3">
-        <v>2</v>
-      </c>
-      <c r="AQ3">
-        <v>6</v>
-      </c>
-      <c r="AR3">
-        <v>10</v>
-      </c>
-      <c r="AS3">
-        <v>14</v>
-      </c>
-      <c r="AT3">
-        <v>18</v>
-      </c>
-      <c r="AU3">
-        <v>22</v>
-      </c>
-      <c r="AV3">
-        <v>26</v>
-      </c>
-      <c r="AW3">
-        <v>30</v>
-      </c>
-      <c r="AX3">
-        <v>3</v>
-      </c>
-      <c r="AY3">
-        <v>7</v>
-      </c>
-      <c r="AZ3">
-        <v>11</v>
-      </c>
-      <c r="BA3">
-        <v>15</v>
-      </c>
-      <c r="BB3">
-        <v>19</v>
-      </c>
-      <c r="BC3">
-        <v>23</v>
-      </c>
-      <c r="BD3">
-        <v>27</v>
-      </c>
-      <c r="BE3">
-        <v>31</v>
-      </c>
-      <c r="BF3">
-        <v>3</v>
-      </c>
-      <c r="BG3">
-        <v>7</v>
-      </c>
-      <c r="BH3">
-        <v>11</v>
-      </c>
-      <c r="BI3">
-        <v>15</v>
-      </c>
-      <c r="BJ3">
-        <v>19</v>
-      </c>
-      <c r="BK3">
-        <v>23</v>
-      </c>
-      <c r="BL3">
-        <v>27</v>
-      </c>
-      <c r="BM3">
-        <v>31</v>
-      </c>
-      <c r="BN3">
-        <v>0</v>
-      </c>
-      <c r="BO3">
-        <v>4</v>
-      </c>
-      <c r="BP3">
-        <v>8</v>
-      </c>
-      <c r="BQ3">
-        <v>12</v>
-      </c>
-      <c r="BR3">
-        <v>16</v>
-      </c>
-      <c r="BS3">
-        <v>20</v>
-      </c>
-      <c r="BT3">
-        <v>24</v>
-      </c>
-      <c r="BU3">
-        <v>28</v>
-      </c>
-      <c r="BV3">
-        <v>0</v>
-      </c>
-      <c r="BW3">
-        <v>4</v>
-      </c>
-      <c r="BX3">
-        <v>8</v>
-      </c>
-      <c r="BY3">
-        <v>12</v>
-      </c>
-      <c r="BZ3">
-        <v>16</v>
-      </c>
-      <c r="CA3">
-        <v>20</v>
-      </c>
-      <c r="CB3">
-        <v>24</v>
-      </c>
-      <c r="CC3">
-        <v>28</v>
-      </c>
-      <c r="CD3">
-        <v>1</v>
-      </c>
-      <c r="CE3">
-        <v>5</v>
-      </c>
-      <c r="CF3">
-        <v>9</v>
-      </c>
-      <c r="CG3">
-        <v>13</v>
-      </c>
-      <c r="CH3">
-        <v>17</v>
-      </c>
-      <c r="CI3">
-        <v>21</v>
-      </c>
-      <c r="CJ3">
-        <v>25</v>
-      </c>
-      <c r="CK3">
-        <v>29</v>
-      </c>
-      <c r="CL3">
-        <v>1</v>
-      </c>
-      <c r="CM3">
-        <v>5</v>
-      </c>
-      <c r="CN3">
-        <v>9</v>
-      </c>
-      <c r="CO3">
-        <v>13</v>
-      </c>
-      <c r="CP3">
-        <v>17</v>
-      </c>
-      <c r="CQ3">
-        <v>21</v>
-      </c>
-      <c r="CR3">
-        <v>25</v>
-      </c>
-      <c r="CS3">
-        <v>29</v>
-      </c>
-      <c r="CT3">
-        <v>2</v>
-      </c>
-      <c r="CU3">
-        <v>6</v>
-      </c>
-      <c r="CV3">
-        <v>10</v>
-      </c>
-      <c r="CW3">
-        <v>14</v>
-      </c>
-      <c r="CX3">
-        <v>18</v>
-      </c>
-      <c r="CY3">
-        <v>22</v>
-      </c>
-      <c r="CZ3">
-        <v>26</v>
-      </c>
-      <c r="DA3">
-        <v>30</v>
-      </c>
-      <c r="DB3">
-        <v>2</v>
-      </c>
-      <c r="DC3">
-        <v>6</v>
-      </c>
-      <c r="DD3">
-        <v>10</v>
-      </c>
-      <c r="DE3">
-        <v>14</v>
-      </c>
-      <c r="DF3">
-        <v>18</v>
-      </c>
-      <c r="DG3">
-        <v>22</v>
-      </c>
-      <c r="DH3">
-        <v>26</v>
-      </c>
-      <c r="DI3">
-        <v>30</v>
-      </c>
-      <c r="DJ3">
-        <v>3</v>
-      </c>
-      <c r="DK3">
-        <v>7</v>
-      </c>
-      <c r="DL3">
-        <v>11</v>
-      </c>
-      <c r="DM3">
-        <v>15</v>
-      </c>
-      <c r="DN3">
-        <v>19</v>
-      </c>
-      <c r="DO3">
-        <v>23</v>
-      </c>
-      <c r="DP3">
-        <v>27</v>
-      </c>
-      <c r="DQ3">
-        <v>31</v>
-      </c>
-      <c r="DR3">
-        <v>3</v>
-      </c>
-      <c r="DS3">
-        <v>7</v>
-      </c>
-      <c r="DT3">
-        <v>11</v>
-      </c>
-      <c r="DU3">
-        <v>15</v>
-      </c>
-      <c r="DV3">
-        <v>19</v>
-      </c>
-      <c r="DW3">
-        <v>23</v>
-      </c>
-      <c r="DX3">
-        <v>27</v>
-      </c>
-      <c r="DY3">
-        <v>31</v>
-      </c>
-      <c r="DZ3">
-        <v>0</v>
-      </c>
-      <c r="EA3">
-        <v>4</v>
-      </c>
-      <c r="EB3">
-        <v>8</v>
-      </c>
-      <c r="EC3">
-        <v>12</v>
-      </c>
-      <c r="ED3">
-        <v>16</v>
-      </c>
-      <c r="EE3">
-        <v>20</v>
-      </c>
-      <c r="EF3">
-        <v>24</v>
-      </c>
-      <c r="EG3">
-        <v>28</v>
-      </c>
-      <c r="EH3">
-        <v>0</v>
-      </c>
-      <c r="EI3">
-        <v>4</v>
-      </c>
-      <c r="EJ3">
-        <v>8</v>
-      </c>
-      <c r="EK3">
-        <v>12</v>
-      </c>
-      <c r="EL3">
-        <v>16</v>
-      </c>
-      <c r="EM3">
-        <v>20</v>
-      </c>
-      <c r="EN3">
-        <v>24</v>
-      </c>
-      <c r="EO3">
-        <v>28</v>
-      </c>
-      <c r="EP3">
-        <v>1</v>
-      </c>
-      <c r="EQ3">
-        <v>5</v>
-      </c>
-      <c r="ER3">
-        <v>9</v>
-      </c>
-      <c r="ES3">
-        <v>13</v>
-      </c>
-      <c r="ET3">
-        <v>17</v>
-      </c>
-      <c r="EU3">
-        <v>21</v>
-      </c>
-      <c r="EV3">
-        <v>25</v>
-      </c>
-      <c r="EW3">
-        <v>29</v>
-      </c>
-      <c r="EX3">
-        <v>1</v>
-      </c>
-      <c r="EY3">
-        <v>5</v>
-      </c>
-      <c r="EZ3">
-        <v>9</v>
-      </c>
-      <c r="FA3">
-        <v>13</v>
-      </c>
-      <c r="FB3">
-        <v>17</v>
-      </c>
-      <c r="FC3">
-        <v>21</v>
-      </c>
-      <c r="FD3">
-        <v>25</v>
-      </c>
-      <c r="FE3">
-        <v>29</v>
-      </c>
-      <c r="FF3">
-        <v>2</v>
-      </c>
-      <c r="FG3">
-        <v>6</v>
-      </c>
-      <c r="FH3">
-        <v>10</v>
-      </c>
-      <c r="FI3">
-        <v>14</v>
-      </c>
-      <c r="FJ3">
-        <v>18</v>
-      </c>
-      <c r="FK3">
-        <v>22</v>
-      </c>
-      <c r="FL3">
-        <v>26</v>
-      </c>
-      <c r="FM3">
-        <v>30</v>
-      </c>
-      <c r="FN3">
-        <v>2</v>
-      </c>
-      <c r="FO3">
-        <v>6</v>
-      </c>
-      <c r="FP3">
-        <v>10</v>
-      </c>
-      <c r="FQ3">
-        <v>14</v>
-      </c>
-      <c r="FR3">
-        <v>18</v>
-      </c>
-      <c r="FS3">
-        <v>22</v>
-      </c>
-      <c r="FT3">
-        <v>26</v>
-      </c>
-      <c r="FU3">
-        <v>30</v>
-      </c>
-      <c r="FV3">
-        <v>3</v>
-      </c>
-      <c r="FW3">
-        <v>7</v>
-      </c>
-      <c r="FX3">
-        <v>11</v>
-      </c>
-      <c r="FY3">
-        <v>15</v>
-      </c>
-      <c r="FZ3">
-        <v>19</v>
-      </c>
-      <c r="GA3">
-        <v>23</v>
-      </c>
-      <c r="GB3">
-        <v>27</v>
-      </c>
-      <c r="GC3">
-        <v>31</v>
-      </c>
-      <c r="GD3">
-        <v>3</v>
-      </c>
-      <c r="GE3">
-        <v>7</v>
-      </c>
-      <c r="GF3">
-        <v>11</v>
-      </c>
-      <c r="GG3">
-        <v>15</v>
-      </c>
-      <c r="GH3">
-        <v>19</v>
-      </c>
-      <c r="GI3">
-        <v>23</v>
-      </c>
-      <c r="GJ3">
-        <v>27</v>
-      </c>
-      <c r="GK3">
-        <v>31</v>
-      </c>
-      <c r="GL3">
-        <v>0</v>
-      </c>
-      <c r="GM3">
-        <v>4</v>
-      </c>
-      <c r="GN3">
-        <v>8</v>
-      </c>
-      <c r="GO3">
-        <v>12</v>
-      </c>
-      <c r="GP3">
-        <v>16</v>
-      </c>
-      <c r="GQ3">
-        <v>20</v>
-      </c>
-      <c r="GR3">
-        <v>24</v>
-      </c>
-      <c r="GS3">
-        <v>28</v>
-      </c>
-      <c r="GT3">
-        <v>0</v>
-      </c>
-      <c r="GU3">
-        <v>4</v>
-      </c>
-      <c r="GV3">
-        <v>8</v>
-      </c>
-      <c r="GW3">
-        <v>12</v>
-      </c>
-      <c r="GX3">
-        <v>16</v>
-      </c>
-      <c r="GY3">
-        <v>20</v>
-      </c>
-      <c r="GZ3">
-        <v>24</v>
-      </c>
-      <c r="HA3">
-        <v>28</v>
-      </c>
-      <c r="HB3">
-        <v>1</v>
-      </c>
-      <c r="HC3">
-        <v>5</v>
-      </c>
-      <c r="HD3">
-        <v>9</v>
-      </c>
-      <c r="HE3">
-        <v>13</v>
-      </c>
-      <c r="HF3">
-        <v>17</v>
-      </c>
-      <c r="HG3">
-        <v>21</v>
-      </c>
-      <c r="HH3">
-        <v>25</v>
-      </c>
-      <c r="HI3">
-        <v>29</v>
-      </c>
-      <c r="HJ3">
-        <v>1</v>
-      </c>
-      <c r="HK3">
-        <v>5</v>
-      </c>
-      <c r="HL3">
-        <v>9</v>
-      </c>
-      <c r="HM3">
-        <v>13</v>
-      </c>
-      <c r="HN3">
-        <v>17</v>
-      </c>
-      <c r="HO3">
-        <v>21</v>
-      </c>
-      <c r="HP3">
-        <v>25</v>
-      </c>
-      <c r="HQ3">
-        <v>29</v>
-      </c>
-      <c r="HR3">
-        <v>2</v>
-      </c>
-      <c r="HS3">
-        <v>6</v>
-      </c>
-      <c r="HT3">
-        <v>10</v>
-      </c>
-      <c r="HU3">
-        <v>14</v>
-      </c>
-      <c r="HV3">
-        <v>18</v>
-      </c>
-      <c r="HW3">
-        <v>22</v>
-      </c>
-      <c r="HX3">
-        <v>26</v>
-      </c>
-      <c r="HY3">
-        <v>30</v>
-      </c>
-      <c r="HZ3">
-        <v>2</v>
-      </c>
-      <c r="IA3">
-        <v>6</v>
-      </c>
-      <c r="IB3">
-        <v>10</v>
-      </c>
-      <c r="IC3">
-        <v>14</v>
-      </c>
-      <c r="ID3">
-        <v>18</v>
-      </c>
-      <c r="IE3">
-        <v>22</v>
-      </c>
-      <c r="IF3">
-        <v>26</v>
-      </c>
-      <c r="IG3">
-        <v>30</v>
-      </c>
-      <c r="IH3">
-        <v>3</v>
-      </c>
-      <c r="II3">
-        <v>7</v>
-      </c>
-      <c r="IJ3">
-        <v>11</v>
-      </c>
-      <c r="IK3">
-        <v>15</v>
-      </c>
-      <c r="IL3">
-        <v>19</v>
-      </c>
-      <c r="IM3">
-        <v>23</v>
-      </c>
-      <c r="IN3">
-        <v>27</v>
-      </c>
-      <c r="IO3">
-        <v>31</v>
-      </c>
-      <c r="IP3">
-        <v>3</v>
-      </c>
-      <c r="IQ3">
-        <v>7</v>
-      </c>
-      <c r="IR3">
-        <v>11</v>
-      </c>
-      <c r="IS3">
-        <v>15</v>
-      </c>
-      <c r="IT3">
-        <v>19</v>
-      </c>
-      <c r="IU3">
-        <v>23</v>
-      </c>
-      <c r="IV3">
-        <v>27</v>
-      </c>
-      <c r="IW3">
-        <v>31</v>
+      <c r="B257">
+        <v>3</v>
+      </c>
+      <c r="C257">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3491,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3499,10 +4007,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3510,10 +4018,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3521,10 +4029,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>384</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3532,10 +4040,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>512</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3543,10 +4051,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>640</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>642</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3554,10 +4062,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24</v>
+        <v>768</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>770</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3565,10 +4073,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28</v>
+        <v>896</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>898</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3576,10 +4084,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3587,10 +4095,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>1152</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3598,10 +4106,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>1280</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3609,10 +4117,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>1408</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3620,10 +4128,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16</v>
+        <v>1536</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3631,10 +4139,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>1664</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3642,10 +4150,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24</v>
+        <v>1792</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3653,10 +4161,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28</v>
+        <v>1920</v>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3664,10 +4172,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3675,10 +4183,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3686,10 +4194,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>260</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3697,10 +4205,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13</v>
+        <v>388</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>390</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3708,10 +4216,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17</v>
+        <v>516</v>
       </c>
       <c r="C22">
-        <v>17</v>
+        <v>518</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3719,10 +4227,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21</v>
+        <v>644</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>646</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3730,10 +4238,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25</v>
+        <v>772</v>
       </c>
       <c r="C24">
-        <v>25</v>
+        <v>774</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3741,10 +4249,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29</v>
+        <v>900</v>
       </c>
       <c r="C25">
-        <v>29</v>
+        <v>902</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3752,10 +4260,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>1028</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3763,10 +4271,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>1156</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3774,10 +4282,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>9</v>
+        <v>1284</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3785,10 +4293,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>1412</v>
       </c>
       <c r="C29">
-        <v>13</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3796,10 +4304,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>17</v>
+        <v>1540</v>
       </c>
       <c r="C30">
-        <v>17</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3807,10 +4315,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>21</v>
+        <v>1668</v>
       </c>
       <c r="C31">
-        <v>21</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3818,10 +4326,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>25</v>
+        <v>1796</v>
       </c>
       <c r="C32">
-        <v>25</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3829,10 +4337,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>29</v>
+        <v>1924</v>
       </c>
       <c r="C33">
-        <v>29</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3840,10 +4348,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3851,10 +4359,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3862,10 +4370,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>264</v>
       </c>
       <c r="C36">
-        <v>10</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3873,10 +4381,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>14</v>
+        <v>392</v>
       </c>
       <c r="C37">
-        <v>14</v>
+        <v>394</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3884,10 +4392,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>18</v>
+        <v>520</v>
       </c>
       <c r="C38">
-        <v>18</v>
+        <v>522</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3895,10 +4403,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>22</v>
+        <v>648</v>
       </c>
       <c r="C39">
-        <v>22</v>
+        <v>650</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3906,10 +4414,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>26</v>
+        <v>776</v>
       </c>
       <c r="C40">
-        <v>26</v>
+        <v>778</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3917,10 +4425,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>30</v>
+        <v>904</v>
       </c>
       <c r="C41">
-        <v>30</v>
+        <v>906</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3928,10 +4436,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>1032</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3939,10 +4447,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>1160</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3950,10 +4458,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>10</v>
+        <v>1288</v>
       </c>
       <c r="C44">
-        <v>10</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3961,10 +4469,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>14</v>
+        <v>1416</v>
       </c>
       <c r="C45">
-        <v>14</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3972,10 +4480,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>18</v>
+        <v>1544</v>
       </c>
       <c r="C46">
-        <v>18</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -3983,10 +4491,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>22</v>
+        <v>1672</v>
       </c>
       <c r="C47">
-        <v>22</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -3994,10 +4502,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>26</v>
+        <v>1800</v>
       </c>
       <c r="C48">
-        <v>26</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4005,10 +4513,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>30</v>
+        <v>1928</v>
       </c>
       <c r="C49">
-        <v>30</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4016,10 +4524,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4027,10 +4535,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="C51">
-        <v>7</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -4038,10 +4546,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>11</v>
+        <v>268</v>
       </c>
       <c r="C52">
-        <v>11</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -4049,10 +4557,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>15</v>
+        <v>396</v>
       </c>
       <c r="C53">
-        <v>15</v>
+        <v>398</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -4060,10 +4568,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>19</v>
+        <v>524</v>
       </c>
       <c r="C54">
-        <v>19</v>
+        <v>526</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -4071,10 +4579,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>23</v>
+        <v>652</v>
       </c>
       <c r="C55">
-        <v>23</v>
+        <v>654</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -4082,10 +4590,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>27</v>
+        <v>780</v>
       </c>
       <c r="C56">
-        <v>27</v>
+        <v>782</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -4093,10 +4601,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>31</v>
+        <v>908</v>
       </c>
       <c r="C57">
-        <v>31</v>
+        <v>910</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -4104,10 +4612,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>1036</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -4115,10 +4623,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7</v>
+        <v>1164</v>
       </c>
       <c r="C59">
-        <v>7</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -4126,10 +4634,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>11</v>
+        <v>1292</v>
       </c>
       <c r="C60">
-        <v>11</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -4137,10 +4645,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>15</v>
+        <v>1420</v>
       </c>
       <c r="C61">
-        <v>15</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -4148,10 +4656,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>19</v>
+        <v>1548</v>
       </c>
       <c r="C62">
-        <v>19</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -4159,10 +4667,10 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>23</v>
+        <v>1676</v>
       </c>
       <c r="C63">
-        <v>23</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -4170,10 +4678,10 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>27</v>
+        <v>1804</v>
       </c>
       <c r="C64">
-        <v>27</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -4181,10 +4689,10 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>31</v>
+        <v>1932</v>
       </c>
       <c r="C65">
-        <v>31</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -4192,10 +4700,10 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>2048</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -4203,10 +4711,10 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>4</v>
+        <v>2176</v>
       </c>
       <c r="C67">
-        <v>4</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -4214,10 +4722,10 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>8</v>
+        <v>2304</v>
       </c>
       <c r="C68">
-        <v>8</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -4225,10 +4733,10 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>12</v>
+        <v>2432</v>
       </c>
       <c r="C69">
-        <v>12</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -4236,10 +4744,10 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>16</v>
+        <v>2560</v>
       </c>
       <c r="C70">
-        <v>16</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -4247,10 +4755,10 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>20</v>
+        <v>2688</v>
       </c>
       <c r="C71">
-        <v>20</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -4258,10 +4766,10 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>24</v>
+        <v>2816</v>
       </c>
       <c r="C72">
-        <v>24</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -4269,10 +4777,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>28</v>
+        <v>2944</v>
       </c>
       <c r="C73">
-        <v>28</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -4280,10 +4788,10 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>3072</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -4291,10 +4799,10 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>3200</v>
       </c>
       <c r="C75">
-        <v>4</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -4302,10 +4810,10 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>8</v>
+        <v>3328</v>
       </c>
       <c r="C76">
-        <v>8</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -4313,10 +4821,10 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>12</v>
+        <v>3456</v>
       </c>
       <c r="C77">
-        <v>12</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -4324,10 +4832,10 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>16</v>
+        <v>3584</v>
       </c>
       <c r="C78">
-        <v>16</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -4335,10 +4843,10 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>20</v>
+        <v>3712</v>
       </c>
       <c r="C79">
-        <v>20</v>
+        <v>3714</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -4346,10 +4854,10 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>24</v>
+        <v>3840</v>
       </c>
       <c r="C80">
-        <v>24</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -4357,10 +4865,10 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>28</v>
+        <v>3968</v>
       </c>
       <c r="C81">
-        <v>28</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -4368,10 +4876,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>2052</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -4379,10 +4887,10 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5</v>
+        <v>2180</v>
       </c>
       <c r="C83">
-        <v>5</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -4390,10 +4898,10 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>9</v>
+        <v>2308</v>
       </c>
       <c r="C84">
-        <v>9</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -4401,10 +4909,10 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>13</v>
+        <v>2436</v>
       </c>
       <c r="C85">
-        <v>13</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -4412,10 +4920,10 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>17</v>
+        <v>2564</v>
       </c>
       <c r="C86">
-        <v>17</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -4423,10 +4931,10 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>21</v>
+        <v>2692</v>
       </c>
       <c r="C87">
-        <v>21</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -4434,10 +4942,10 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>25</v>
+        <v>2820</v>
       </c>
       <c r="C88">
-        <v>25</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -4445,10 +4953,10 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>29</v>
+        <v>2948</v>
       </c>
       <c r="C89">
-        <v>29</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -4456,10 +4964,10 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>3076</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -4467,10 +4975,10 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5</v>
+        <v>3204</v>
       </c>
       <c r="C91">
-        <v>5</v>
+        <v>3206</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -4478,10 +4986,10 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>9</v>
+        <v>3332</v>
       </c>
       <c r="C92">
-        <v>9</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -4489,10 +4997,10 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>13</v>
+        <v>3460</v>
       </c>
       <c r="C93">
-        <v>13</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -4500,10 +5008,10 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>17</v>
+        <v>3588</v>
       </c>
       <c r="C94">
-        <v>17</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -4511,10 +5019,10 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>21</v>
+        <v>3716</v>
       </c>
       <c r="C95">
-        <v>21</v>
+        <v>3718</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -4522,10 +5030,10 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>25</v>
+        <v>3844</v>
       </c>
       <c r="C96">
-        <v>25</v>
+        <v>3846</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -4533,10 +5041,10 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>29</v>
+        <v>3972</v>
       </c>
       <c r="C97">
-        <v>29</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -4544,10 +5052,10 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>2</v>
+        <v>2056</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -4555,10 +5063,10 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6</v>
+        <v>2184</v>
       </c>
       <c r="C99">
-        <v>6</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -4566,10 +5074,10 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>10</v>
+        <v>2312</v>
       </c>
       <c r="C100">
-        <v>10</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -4577,10 +5085,10 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>14</v>
+        <v>2440</v>
       </c>
       <c r="C101">
-        <v>14</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -4588,10 +5096,10 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>18</v>
+        <v>2568</v>
       </c>
       <c r="C102">
-        <v>18</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -4599,10 +5107,10 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>22</v>
+        <v>2696</v>
       </c>
       <c r="C103">
-        <v>22</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -4610,10 +5118,10 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>26</v>
+        <v>2824</v>
       </c>
       <c r="C104">
-        <v>26</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -4621,10 +5129,10 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>30</v>
+        <v>2952</v>
       </c>
       <c r="C105">
-        <v>30</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -4632,10 +5140,10 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>2</v>
+        <v>3080</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -4643,10 +5151,10 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6</v>
+        <v>3208</v>
       </c>
       <c r="C107">
-        <v>6</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -4654,10 +5162,10 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>10</v>
+        <v>3336</v>
       </c>
       <c r="C108">
-        <v>10</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -4665,10 +5173,10 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>14</v>
+        <v>3464</v>
       </c>
       <c r="C109">
-        <v>14</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -4676,10 +5184,10 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>18</v>
+        <v>3592</v>
       </c>
       <c r="C110">
-        <v>18</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -4687,10 +5195,10 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>22</v>
+        <v>3720</v>
       </c>
       <c r="C111">
-        <v>22</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -4698,10 +5206,10 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>26</v>
+        <v>3848</v>
       </c>
       <c r="C112">
-        <v>26</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -4709,10 +5217,10 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>30</v>
+        <v>3976</v>
       </c>
       <c r="C113">
-        <v>30</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -4720,10 +5228,10 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>3</v>
+        <v>2060</v>
       </c>
       <c r="C114">
-        <v>3</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -4731,10 +5239,10 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7</v>
+        <v>2188</v>
       </c>
       <c r="C115">
-        <v>7</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -4742,10 +5250,10 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>11</v>
+        <v>2316</v>
       </c>
       <c r="C116">
-        <v>11</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -4753,10 +5261,10 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>15</v>
+        <v>2444</v>
       </c>
       <c r="C117">
-        <v>15</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -4764,10 +5272,10 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>19</v>
+        <v>2572</v>
       </c>
       <c r="C118">
-        <v>19</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -4775,10 +5283,10 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>23</v>
+        <v>2700</v>
       </c>
       <c r="C119">
-        <v>23</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -4786,10 +5294,10 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>27</v>
+        <v>2828</v>
       </c>
       <c r="C120">
-        <v>27</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -4797,10 +5305,10 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>31</v>
+        <v>2956</v>
       </c>
       <c r="C121">
-        <v>31</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -4808,10 +5316,10 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>3</v>
+        <v>3084</v>
       </c>
       <c r="C122">
-        <v>3</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -4819,10 +5327,10 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7</v>
+        <v>3212</v>
       </c>
       <c r="C123">
-        <v>7</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -4830,10 +5338,10 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>11</v>
+        <v>3340</v>
       </c>
       <c r="C124">
-        <v>11</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -4841,10 +5349,10 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>15</v>
+        <v>3468</v>
       </c>
       <c r="C125">
-        <v>15</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -4852,10 +5360,10 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>19</v>
+        <v>3596</v>
       </c>
       <c r="C126">
-        <v>19</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -4863,10 +5371,10 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>23</v>
+        <v>3724</v>
       </c>
       <c r="C127">
-        <v>23</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -4874,10 +5382,10 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>27</v>
+        <v>3852</v>
       </c>
       <c r="C128">
-        <v>27</v>
+        <v>3854</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -4885,10 +5393,10 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>31</v>
+        <v>3980</v>
       </c>
       <c r="C129">
-        <v>31</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -4896,10 +5404,10 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>4096</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>4098</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -4907,10 +5415,10 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>4</v>
+        <v>4224</v>
       </c>
       <c r="C131">
-        <v>4</v>
+        <v>4226</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -4918,10 +5426,10 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>8</v>
+        <v>4352</v>
       </c>
       <c r="C132">
-        <v>8</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -4929,10 +5437,10 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>12</v>
+        <v>4480</v>
       </c>
       <c r="C133">
-        <v>12</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -4940,10 +5448,10 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>16</v>
+        <v>4608</v>
       </c>
       <c r="C134">
-        <v>16</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -4951,10 +5459,10 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>20</v>
+        <v>4736</v>
       </c>
       <c r="C135">
-        <v>20</v>
+        <v>4738</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -4962,10 +5470,10 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>24</v>
+        <v>4864</v>
       </c>
       <c r="C136">
-        <v>24</v>
+        <v>4866</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -4973,10 +5481,10 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>28</v>
+        <v>4992</v>
       </c>
       <c r="C137">
-        <v>28</v>
+        <v>4994</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -4984,10 +5492,10 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>5120</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>5122</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -4995,10 +5503,10 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>4</v>
+        <v>5248</v>
       </c>
       <c r="C139">
-        <v>4</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -5006,10 +5514,10 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>8</v>
+        <v>5376</v>
       </c>
       <c r="C140">
-        <v>8</v>
+        <v>5378</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -5017,10 +5525,10 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>12</v>
+        <v>5504</v>
       </c>
       <c r="C141">
-        <v>12</v>
+        <v>5506</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -5028,10 +5536,10 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>16</v>
+        <v>5632</v>
       </c>
       <c r="C142">
-        <v>16</v>
+        <v>5634</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -5039,10 +5547,10 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>20</v>
+        <v>5760</v>
       </c>
       <c r="C143">
-        <v>20</v>
+        <v>5762</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -5050,10 +5558,10 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>24</v>
+        <v>5888</v>
       </c>
       <c r="C144">
-        <v>24</v>
+        <v>5890</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -5061,10 +5569,10 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>28</v>
+        <v>6016</v>
       </c>
       <c r="C145">
-        <v>28</v>
+        <v>6018</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -5072,10 +5580,10 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>4100</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>4102</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -5083,10 +5591,10 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>5</v>
+        <v>4228</v>
       </c>
       <c r="C147">
-        <v>5</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -5094,10 +5602,10 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>9</v>
+        <v>4356</v>
       </c>
       <c r="C148">
-        <v>9</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -5105,10 +5613,10 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>13</v>
+        <v>4484</v>
       </c>
       <c r="C149">
-        <v>13</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -5116,10 +5624,10 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>17</v>
+        <v>4612</v>
       </c>
       <c r="C150">
-        <v>17</v>
+        <v>4614</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -5127,10 +5635,10 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>21</v>
+        <v>4740</v>
       </c>
       <c r="C151">
-        <v>21</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -5138,10 +5646,10 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>25</v>
+        <v>4868</v>
       </c>
       <c r="C152">
-        <v>25</v>
+        <v>4870</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -5149,10 +5657,10 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>29</v>
+        <v>4996</v>
       </c>
       <c r="C153">
-        <v>29</v>
+        <v>4998</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -5160,10 +5668,10 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>5124</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -5171,10 +5679,10 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>5</v>
+        <v>5252</v>
       </c>
       <c r="C155">
-        <v>5</v>
+        <v>5254</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -5182,10 +5690,10 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>9</v>
+        <v>5380</v>
       </c>
       <c r="C156">
-        <v>9</v>
+        <v>5382</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -5193,10 +5701,10 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>13</v>
+        <v>5508</v>
       </c>
       <c r="C157">
-        <v>13</v>
+        <v>5510</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -5204,10 +5712,10 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>17</v>
+        <v>5636</v>
       </c>
       <c r="C158">
-        <v>17</v>
+        <v>5638</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -5215,10 +5723,10 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>21</v>
+        <v>5764</v>
       </c>
       <c r="C159">
-        <v>21</v>
+        <v>5766</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -5226,10 +5734,10 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>25</v>
+        <v>5892</v>
       </c>
       <c r="C160">
-        <v>25</v>
+        <v>5894</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -5237,10 +5745,10 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>29</v>
+        <v>6020</v>
       </c>
       <c r="C161">
-        <v>29</v>
+        <v>6022</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -5248,10 +5756,10 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>2</v>
+        <v>4104</v>
       </c>
       <c r="C162">
-        <v>2</v>
+        <v>4106</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -5259,10 +5767,10 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6</v>
+        <v>4232</v>
       </c>
       <c r="C163">
-        <v>6</v>
+        <v>4234</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -5270,10 +5778,10 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>10</v>
+        <v>4360</v>
       </c>
       <c r="C164">
-        <v>10</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -5281,10 +5789,10 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>14</v>
+        <v>4488</v>
       </c>
       <c r="C165">
-        <v>14</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -5292,10 +5800,10 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>18</v>
+        <v>4616</v>
       </c>
       <c r="C166">
-        <v>18</v>
+        <v>4618</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -5303,10 +5811,10 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>22</v>
+        <v>4744</v>
       </c>
       <c r="C167">
-        <v>22</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -5314,10 +5822,10 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>26</v>
+        <v>4872</v>
       </c>
       <c r="C168">
-        <v>26</v>
+        <v>4874</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -5325,10 +5833,10 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>30</v>
+        <v>5000</v>
       </c>
       <c r="C169">
-        <v>30</v>
+        <v>5002</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -5336,10 +5844,10 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>2</v>
+        <v>5128</v>
       </c>
       <c r="C170">
-        <v>2</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -5347,10 +5855,10 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6</v>
+        <v>5256</v>
       </c>
       <c r="C171">
-        <v>6</v>
+        <v>5258</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -5358,10 +5866,10 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>10</v>
+        <v>5384</v>
       </c>
       <c r="C172">
-        <v>10</v>
+        <v>5386</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -5369,10 +5877,10 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>14</v>
+        <v>5512</v>
       </c>
       <c r="C173">
-        <v>14</v>
+        <v>5514</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -5380,10 +5888,10 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>18</v>
+        <v>5640</v>
       </c>
       <c r="C174">
-        <v>18</v>
+        <v>5642</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -5391,10 +5899,10 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>22</v>
+        <v>5768</v>
       </c>
       <c r="C175">
-        <v>22</v>
+        <v>5770</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -5402,10 +5910,10 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>26</v>
+        <v>5896</v>
       </c>
       <c r="C176">
-        <v>26</v>
+        <v>5898</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -5413,10 +5921,10 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>30</v>
+        <v>6024</v>
       </c>
       <c r="C177">
-        <v>30</v>
+        <v>6026</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -5424,10 +5932,10 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>3</v>
+        <v>4108</v>
       </c>
       <c r="C178">
-        <v>3</v>
+        <v>4110</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -5435,10 +5943,10 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7</v>
+        <v>4236</v>
       </c>
       <c r="C179">
-        <v>7</v>
+        <v>4238</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -5446,10 +5954,10 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>11</v>
+        <v>4364</v>
       </c>
       <c r="C180">
-        <v>11</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -5457,10 +5965,10 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>15</v>
+        <v>4492</v>
       </c>
       <c r="C181">
-        <v>15</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -5468,10 +5976,10 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>19</v>
+        <v>4620</v>
       </c>
       <c r="C182">
-        <v>19</v>
+        <v>4622</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -5479,10 +5987,10 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>23</v>
+        <v>4748</v>
       </c>
       <c r="C183">
-        <v>23</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -5490,10 +5998,10 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>27</v>
+        <v>4876</v>
       </c>
       <c r="C184">
-        <v>27</v>
+        <v>4878</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -5501,10 +6009,10 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>31</v>
+        <v>5004</v>
       </c>
       <c r="C185">
-        <v>31</v>
+        <v>5006</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -5512,10 +6020,10 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>3</v>
+        <v>5132</v>
       </c>
       <c r="C186">
-        <v>3</v>
+        <v>5134</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -5523,10 +6031,10 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7</v>
+        <v>5260</v>
       </c>
       <c r="C187">
-        <v>7</v>
+        <v>5262</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -5534,10 +6042,10 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>11</v>
+        <v>5388</v>
       </c>
       <c r="C188">
-        <v>11</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -5545,10 +6053,10 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>15</v>
+        <v>5516</v>
       </c>
       <c r="C189">
-        <v>15</v>
+        <v>5518</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -5556,10 +6064,10 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>19</v>
+        <v>5644</v>
       </c>
       <c r="C190">
-        <v>19</v>
+        <v>5646</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -5567,10 +6075,10 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>23</v>
+        <v>5772</v>
       </c>
       <c r="C191">
-        <v>23</v>
+        <v>5774</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -5578,10 +6086,10 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>27</v>
+        <v>5900</v>
       </c>
       <c r="C192">
-        <v>27</v>
+        <v>5902</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -5589,10 +6097,10 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>31</v>
+        <v>6028</v>
       </c>
       <c r="C193">
-        <v>31</v>
+        <v>6030</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -5600,10 +6108,10 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0</v>
+        <v>6144</v>
       </c>
       <c r="C194">
-        <v>0</v>
+        <v>6146</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -5611,10 +6119,10 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>4</v>
+        <v>6272</v>
       </c>
       <c r="C195">
-        <v>4</v>
+        <v>6274</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -5622,10 +6130,10 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>8</v>
+        <v>6400</v>
       </c>
       <c r="C196">
-        <v>8</v>
+        <v>6402</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -5633,10 +6141,10 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>12</v>
+        <v>6528</v>
       </c>
       <c r="C197">
-        <v>12</v>
+        <v>6530</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -5644,10 +6152,10 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>16</v>
+        <v>6656</v>
       </c>
       <c r="C198">
-        <v>16</v>
+        <v>6658</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -5655,10 +6163,10 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>20</v>
+        <v>6784</v>
       </c>
       <c r="C199">
-        <v>20</v>
+        <v>6786</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -5666,10 +6174,10 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>24</v>
+        <v>6912</v>
       </c>
       <c r="C200">
-        <v>24</v>
+        <v>6914</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -5677,10 +6185,10 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>28</v>
+        <v>7040</v>
       </c>
       <c r="C201">
-        <v>28</v>
+        <v>7042</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -5688,10 +6196,10 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0</v>
+        <v>7168</v>
       </c>
       <c r="C202">
-        <v>0</v>
+        <v>7170</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -5699,10 +6207,10 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>4</v>
+        <v>7296</v>
       </c>
       <c r="C203">
-        <v>4</v>
+        <v>7298</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -5710,10 +6218,10 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>8</v>
+        <v>7424</v>
       </c>
       <c r="C204">
-        <v>8</v>
+        <v>7426</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -5721,10 +6229,10 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>12</v>
+        <v>7552</v>
       </c>
       <c r="C205">
-        <v>12</v>
+        <v>7554</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -5732,10 +6240,10 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>16</v>
+        <v>7680</v>
       </c>
       <c r="C206">
-        <v>16</v>
+        <v>7682</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -5743,10 +6251,10 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>20</v>
+        <v>7808</v>
       </c>
       <c r="C207">
-        <v>20</v>
+        <v>7810</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -5754,10 +6262,10 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>24</v>
+        <v>7936</v>
       </c>
       <c r="C208">
-        <v>24</v>
+        <v>7938</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -5765,10 +6273,10 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>28</v>
+        <v>8064</v>
       </c>
       <c r="C209">
-        <v>28</v>
+        <v>8066</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -5776,10 +6284,10 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>6148</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -5787,10 +6295,10 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>5</v>
+        <v>6276</v>
       </c>
       <c r="C211">
-        <v>5</v>
+        <v>6278</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -5798,10 +6306,10 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>9</v>
+        <v>6404</v>
       </c>
       <c r="C212">
-        <v>9</v>
+        <v>6406</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -5809,10 +6317,10 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>13</v>
+        <v>6532</v>
       </c>
       <c r="C213">
-        <v>13</v>
+        <v>6534</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -5820,10 +6328,10 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>17</v>
+        <v>6660</v>
       </c>
       <c r="C214">
-        <v>17</v>
+        <v>6662</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -5831,10 +6339,10 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>21</v>
+        <v>6788</v>
       </c>
       <c r="C215">
-        <v>21</v>
+        <v>6790</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -5842,10 +6350,10 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>25</v>
+        <v>6916</v>
       </c>
       <c r="C216">
-        <v>25</v>
+        <v>6918</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -5853,10 +6361,10 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>29</v>
+        <v>7044</v>
       </c>
       <c r="C217">
-        <v>29</v>
+        <v>7046</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -5864,10 +6372,10 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>1</v>
+        <v>7172</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>7174</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -5875,10 +6383,10 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>5</v>
+        <v>7300</v>
       </c>
       <c r="C219">
-        <v>5</v>
+        <v>7302</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -5886,10 +6394,10 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>9</v>
+        <v>7428</v>
       </c>
       <c r="C220">
-        <v>9</v>
+        <v>7430</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -5897,10 +6405,10 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>13</v>
+        <v>7556</v>
       </c>
       <c r="C221">
-        <v>13</v>
+        <v>7558</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -5908,10 +6416,10 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>17</v>
+        <v>7684</v>
       </c>
       <c r="C222">
-        <v>17</v>
+        <v>7686</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -5919,10 +6427,10 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>21</v>
+        <v>7812</v>
       </c>
       <c r="C223">
-        <v>21</v>
+        <v>7814</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -5930,10 +6438,10 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>25</v>
+        <v>7940</v>
       </c>
       <c r="C224">
-        <v>25</v>
+        <v>7942</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -5941,10 +6449,10 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>29</v>
+        <v>8068</v>
       </c>
       <c r="C225">
-        <v>29</v>
+        <v>8070</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -5952,10 +6460,10 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>2</v>
+        <v>6152</v>
       </c>
       <c r="C226">
-        <v>2</v>
+        <v>6154</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -5963,10 +6471,10 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6</v>
+        <v>6280</v>
       </c>
       <c r="C227">
-        <v>6</v>
+        <v>6282</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -5974,10 +6482,10 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>10</v>
+        <v>6408</v>
       </c>
       <c r="C228">
-        <v>10</v>
+        <v>6410</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -5985,10 +6493,10 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>14</v>
+        <v>6536</v>
       </c>
       <c r="C229">
-        <v>14</v>
+        <v>6538</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -5996,10 +6504,10 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>18</v>
+        <v>6664</v>
       </c>
       <c r="C230">
-        <v>18</v>
+        <v>6666</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -6007,10 +6515,10 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>22</v>
+        <v>6792</v>
       </c>
       <c r="C231">
-        <v>22</v>
+        <v>6794</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -6018,10 +6526,10 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>26</v>
+        <v>6920</v>
       </c>
       <c r="C232">
-        <v>26</v>
+        <v>6922</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -6029,10 +6537,10 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>30</v>
+        <v>7048</v>
       </c>
       <c r="C233">
-        <v>30</v>
+        <v>7050</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -6040,10 +6548,10 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>2</v>
+        <v>7176</v>
       </c>
       <c r="C234">
-        <v>2</v>
+        <v>7178</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -6051,10 +6559,10 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6</v>
+        <v>7304</v>
       </c>
       <c r="C235">
-        <v>6</v>
+        <v>7306</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -6062,10 +6570,10 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>10</v>
+        <v>7432</v>
       </c>
       <c r="C236">
-        <v>10</v>
+        <v>7434</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -6073,10 +6581,10 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>14</v>
+        <v>7560</v>
       </c>
       <c r="C237">
-        <v>14</v>
+        <v>7562</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -6084,10 +6592,10 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>18</v>
+        <v>7688</v>
       </c>
       <c r="C238">
-        <v>18</v>
+        <v>7690</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -6095,10 +6603,10 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>22</v>
+        <v>7816</v>
       </c>
       <c r="C239">
-        <v>22</v>
+        <v>7818</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -6106,10 +6614,10 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>26</v>
+        <v>7944</v>
       </c>
       <c r="C240">
-        <v>26</v>
+        <v>7946</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -6117,10 +6625,10 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>30</v>
+        <v>8072</v>
       </c>
       <c r="C241">
-        <v>30</v>
+        <v>8074</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -6128,10 +6636,10 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>3</v>
+        <v>6156</v>
       </c>
       <c r="C242">
-        <v>3</v>
+        <v>6158</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -6139,10 +6647,10 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7</v>
+        <v>6284</v>
       </c>
       <c r="C243">
-        <v>7</v>
+        <v>6286</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -6150,10 +6658,10 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>11</v>
+        <v>6412</v>
       </c>
       <c r="C244">
-        <v>11</v>
+        <v>6414</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -6161,10 +6669,10 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>15</v>
+        <v>6540</v>
       </c>
       <c r="C245">
-        <v>15</v>
+        <v>6542</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -6172,10 +6680,10 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>19</v>
+        <v>6668</v>
       </c>
       <c r="C246">
-        <v>19</v>
+        <v>6670</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -6183,10 +6691,10 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>23</v>
+        <v>6796</v>
       </c>
       <c r="C247">
-        <v>23</v>
+        <v>6798</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -6194,10 +6702,10 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>27</v>
+        <v>6924</v>
       </c>
       <c r="C248">
-        <v>27</v>
+        <v>6926</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -6205,10 +6713,10 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>31</v>
+        <v>7052</v>
       </c>
       <c r="C249">
-        <v>31</v>
+        <v>7054</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -6216,10 +6724,10 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>3</v>
+        <v>7180</v>
       </c>
       <c r="C250">
-        <v>3</v>
+        <v>7182</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -6227,10 +6735,10 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7</v>
+        <v>7308</v>
       </c>
       <c r="C251">
-        <v>7</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -6238,10 +6746,10 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>11</v>
+        <v>7436</v>
       </c>
       <c r="C252">
-        <v>11</v>
+        <v>7438</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -6249,10 +6757,10 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>15</v>
+        <v>7564</v>
       </c>
       <c r="C253">
-        <v>15</v>
+        <v>7566</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -6260,10 +6768,10 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>19</v>
+        <v>7692</v>
       </c>
       <c r="C254">
-        <v>19</v>
+        <v>7694</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -6271,10 +6779,10 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>23</v>
+        <v>7820</v>
       </c>
       <c r="C255">
-        <v>23</v>
+        <v>7822</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -6282,10 +6790,10 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>27</v>
+        <v>7948</v>
       </c>
       <c r="C256">
-        <v>27</v>
+        <v>7950</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -6293,10 +6801,10 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>31</v>
+        <v>8076</v>
       </c>
       <c r="C257">
-        <v>31</v>
+        <v>8078</v>
       </c>
     </row>
   </sheetData>
